--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H2">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I2">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J2">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N2">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q2">
-        <v>34.73797877787178</v>
+        <v>35.65759082216</v>
       </c>
       <c r="R2">
-        <v>312.641809000846</v>
+        <v>320.91831739944</v>
       </c>
       <c r="S2">
-        <v>0.002238213835180111</v>
+        <v>0.002193439457815175</v>
       </c>
       <c r="T2">
-        <v>0.002238213835180111</v>
+        <v>0.002193439457815175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H3">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I3">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J3">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q3">
-        <v>373.9854756978714</v>
+        <v>364.6903656099479</v>
       </c>
       <c r="R3">
-        <v>3365.869281280842</v>
+        <v>3282.213290489532</v>
       </c>
       <c r="S3">
-        <v>0.02409637795036597</v>
+        <v>0.02243354694946958</v>
       </c>
       <c r="T3">
-        <v>0.02409637795036597</v>
+        <v>0.02243354694946958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H4">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I4">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J4">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N4">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O4">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P4">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q4">
-        <v>552.1811420110906</v>
+        <v>927.3020105276198</v>
       </c>
       <c r="R4">
-        <v>4969.630278099816</v>
+        <v>8345.718094748578</v>
       </c>
       <c r="S4">
-        <v>0.03557775999224368</v>
+        <v>0.0570420146820063</v>
       </c>
       <c r="T4">
-        <v>0.03557775999224367</v>
+        <v>0.0570420146820063</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H5">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I5">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J5">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N5">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O5">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P5">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q5">
-        <v>195.7342441425669</v>
+        <v>242.435972465804</v>
       </c>
       <c r="R5">
-        <v>1761.608197283102</v>
+        <v>2181.923752192236</v>
       </c>
       <c r="S5">
-        <v>0.01261141576658118</v>
+        <v>0.01491319564051454</v>
       </c>
       <c r="T5">
-        <v>0.01261141576658118</v>
+        <v>0.01491319564051454</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H6">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I6">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J6">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N6">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q6">
-        <v>818.5056805744401</v>
+        <v>661.1276900834519</v>
       </c>
       <c r="R6">
-        <v>7366.551125169962</v>
+        <v>5950.149210751068</v>
       </c>
       <c r="S6">
-        <v>0.05273740162459334</v>
+        <v>0.04066857935848066</v>
       </c>
       <c r="T6">
-        <v>0.05273740162459334</v>
+        <v>0.04066857935848066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>23.071008</v>
       </c>
       <c r="H7">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I7">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J7">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N7">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q7">
-        <v>48.90016269673599</v>
+        <v>51.47403356224001</v>
       </c>
       <c r="R7">
-        <v>440.1014642706239</v>
+        <v>463.2663020601601</v>
       </c>
       <c r="S7">
-        <v>0.003150702042575726</v>
+        <v>0.003166371413913725</v>
       </c>
       <c r="T7">
-        <v>0.003150702042575726</v>
+        <v>0.003166371413913725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>23.071008</v>
       </c>
       <c r="H8">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I8">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J8">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q8">
-        <v>526.4540785398719</v>
+        <v>526.4540785398721</v>
       </c>
       <c r="R8">
-        <v>4738.086706858847</v>
+        <v>4738.086706858848</v>
       </c>
       <c r="S8">
-        <v>0.03392013132685572</v>
+        <v>0.03238427280060236</v>
       </c>
       <c r="T8">
-        <v>0.03392013132685572</v>
+        <v>0.03238427280060235</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>23.071008</v>
       </c>
       <c r="H9">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I9">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J9">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N9">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O9">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P9">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q9">
-        <v>777.2976043042557</v>
+        <v>1338.62029687568</v>
       </c>
       <c r="R9">
-        <v>6995.678438738302</v>
+        <v>12047.58267188112</v>
       </c>
       <c r="S9">
-        <v>0.0500823108658922</v>
+        <v>0.08234382947640537</v>
       </c>
       <c r="T9">
-        <v>0.05008231086589218</v>
+        <v>0.08234382947640535</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>23.071008</v>
       </c>
       <c r="H10">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I10">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J10">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N10">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O10">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P10">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q10">
-        <v>275.532334368032</v>
+        <v>349.971972185056</v>
       </c>
       <c r="R10">
-        <v>2479.791009312288</v>
+        <v>3149.747749665504</v>
       </c>
       <c r="S10">
-        <v>0.01775291207255967</v>
+        <v>0.02152816035016681</v>
       </c>
       <c r="T10">
-        <v>0.01775291207255966</v>
+        <v>0.0215281603501668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>23.071008</v>
       </c>
       <c r="H11">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I11">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J11">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N11">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q11">
-        <v>1152.19890035136</v>
+        <v>954.380487397728</v>
       </c>
       <c r="R11">
-        <v>10369.79010316224</v>
+        <v>8589.424386579552</v>
       </c>
       <c r="S11">
-        <v>0.07423769633046327</v>
+        <v>0.05870771890528543</v>
       </c>
       <c r="T11">
-        <v>0.07423769633046327</v>
+        <v>0.05870771890528542</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H12">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I12">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J12">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N12">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q12">
-        <v>79.04433547269133</v>
+        <v>89.45735997790446</v>
       </c>
       <c r="R12">
-        <v>711.399019254222</v>
+        <v>805.11623980114</v>
       </c>
       <c r="S12">
-        <v>0.005092930892118951</v>
+        <v>0.005502876067711449</v>
       </c>
       <c r="T12">
-        <v>0.005092930892118951</v>
+        <v>0.005502876067711449</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H13">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I13">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J13">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q13">
-        <v>850.983115396666</v>
+        <v>914.9310585662963</v>
       </c>
       <c r="R13">
-        <v>7658.848038569994</v>
+        <v>8234.379527096666</v>
       </c>
       <c r="S13">
-        <v>0.0548299656282472</v>
+        <v>0.05628102849261295</v>
       </c>
       <c r="T13">
-        <v>0.05482996562824719</v>
+        <v>0.05628102849261294</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H14">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I14">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J14">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N14">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O14">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P14">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q14">
-        <v>1256.457426896168</v>
+        <v>2326.404780898734</v>
       </c>
       <c r="R14">
-        <v>11308.11684206551</v>
+        <v>20937.6430280886</v>
       </c>
       <c r="S14">
-        <v>0.0809552108421806</v>
+        <v>0.1431063603461934</v>
       </c>
       <c r="T14">
-        <v>0.08095521084218059</v>
+        <v>0.1431063603461934</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H15">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I15">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J15">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N15">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O15">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P15">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q15">
-        <v>445.3823682843127</v>
+        <v>608.2206217641767</v>
       </c>
       <c r="R15">
-        <v>4008.441314558814</v>
+        <v>5473.985595877591</v>
       </c>
       <c r="S15">
-        <v>0.02869657400085223</v>
+        <v>0.03741405630818246</v>
       </c>
       <c r="T15">
-        <v>0.02869657400085223</v>
+        <v>0.03741405630818246</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H16">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I16">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J16">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N16">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q16">
-        <v>1862.46407758308</v>
+        <v>1658.62966059952</v>
       </c>
       <c r="R16">
-        <v>16762.17669824772</v>
+        <v>14927.66694539568</v>
       </c>
       <c r="S16">
-        <v>0.1200010194210787</v>
+        <v>0.1020288712607196</v>
       </c>
       <c r="T16">
-        <v>0.1200010194210787</v>
+        <v>0.1020288712607196</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H17">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I17">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J17">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N17">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q17">
-        <v>17.38063843756789</v>
+        <v>19.70372191260889</v>
       </c>
       <c r="R17">
-        <v>156.425745938111</v>
+        <v>177.33349721348</v>
       </c>
       <c r="S17">
-        <v>0.001119857481172972</v>
+        <v>0.001212053874432669</v>
       </c>
       <c r="T17">
-        <v>0.001119857481172973</v>
+        <v>0.001212053874432669</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H18">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I18">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J18">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>68.456577</v>
       </c>
       <c r="O18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q18">
-        <v>187.1181502979997</v>
+        <v>201.5211174536327</v>
       </c>
       <c r="R18">
-        <v>1684.063352681997</v>
+        <v>1813.690057082694</v>
       </c>
       <c r="S18">
-        <v>0.0120562694648509</v>
+        <v>0.01239636106685875</v>
       </c>
       <c r="T18">
-        <v>0.0120562694648509</v>
+        <v>0.01239636106685875</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H19">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I19">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J19">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N19">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O19">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P19">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q19">
-        <v>276.2757396654173</v>
+        <v>512.4098550450676</v>
       </c>
       <c r="R19">
-        <v>2486.481656988756</v>
+        <v>4611.688695405609</v>
       </c>
       <c r="S19">
-        <v>0.01780081065734474</v>
+        <v>0.0315203570604303</v>
       </c>
       <c r="T19">
-        <v>0.01780081065734474</v>
+        <v>0.0315203570604303</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H20">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I20">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J20">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N20">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O20">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P20">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q20">
-        <v>97.93275967626745</v>
+        <v>133.9656121722735</v>
       </c>
       <c r="R20">
-        <v>881.3948370864071</v>
+        <v>1205.690509550462</v>
       </c>
       <c r="S20">
-        <v>0.006309937000837202</v>
+        <v>0.008240754716003261</v>
       </c>
       <c r="T20">
-        <v>0.006309937000837202</v>
+        <v>0.008240754716003261</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H21">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I21">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J21">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N21">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q21">
-        <v>409.52731833154</v>
+        <v>365.3268730100006</v>
       </c>
       <c r="R21">
-        <v>3685.74586498386</v>
+        <v>3287.941857090006</v>
       </c>
       <c r="S21">
-        <v>0.02638638579506951</v>
+        <v>0.02247270103740082</v>
       </c>
       <c r="T21">
-        <v>0.02638638579506952</v>
+        <v>0.02247270103740082</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H22">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I22">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J22">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N22">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O22">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P22">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q22">
-        <v>92.90293549079543</v>
+        <v>63.50612210638</v>
       </c>
       <c r="R22">
-        <v>836.1264194171589</v>
+        <v>571.55509895742</v>
       </c>
       <c r="S22">
-        <v>0.005985858787984522</v>
+        <v>0.003906512774115802</v>
       </c>
       <c r="T22">
-        <v>0.005985858787984522</v>
+        <v>0.003906512774115803</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H23">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I23">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J23">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>68.456577</v>
       </c>
       <c r="O23">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P23">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q23">
-        <v>1000.18336545781</v>
+        <v>649.513058943189</v>
       </c>
       <c r="R23">
-        <v>9001.650289120291</v>
+        <v>5845.617530488701</v>
       </c>
       <c r="S23">
-        <v>0.06444313472005134</v>
+        <v>0.03995411745447595</v>
       </c>
       <c r="T23">
-        <v>0.06444313472005132</v>
+        <v>0.03995411745447594</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H24">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I24">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J24">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N24">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O24">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P24">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q24">
-        <v>1476.748239830462</v>
+        <v>1651.523654634035</v>
       </c>
       <c r="R24">
-        <v>13290.73415847416</v>
+        <v>14863.71289170631</v>
       </c>
       <c r="S24">
-        <v>0.09514883875661445</v>
+        <v>0.1015917527254292</v>
       </c>
       <c r="T24">
-        <v>0.09514883875661444</v>
+        <v>0.1015917527254292</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H25">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I25">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J25">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N25">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O25">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P25">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q25">
-        <v>523.4698879055092</v>
+        <v>431.778146403097</v>
       </c>
       <c r="R25">
-        <v>4711.228991149583</v>
+        <v>3886.003317627873</v>
       </c>
       <c r="S25">
-        <v>0.03372785598443136</v>
+        <v>0.02656038171693507</v>
       </c>
       <c r="T25">
-        <v>0.03372785598443135</v>
+        <v>0.02656038171693507</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H26">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I26">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J26">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N26">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O26">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P26">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q26">
-        <v>2189.00417112626</v>
+        <v>1177.467541869261</v>
       </c>
       <c r="R26">
-        <v>19701.03754013634</v>
+        <v>10597.20787682335</v>
       </c>
       <c r="S26">
-        <v>0.1410404287598546</v>
+        <v>0.07243068606383846</v>
       </c>
       <c r="T26">
-        <v>0.1410404287598546</v>
+        <v>0.07243068606383846</v>
       </c>
     </row>
   </sheetData>
